--- a/bloodhound/credenciais_oi_raid7_v10102017.xlsx
+++ b/bloodhound/credenciais_oi_raid7_v10102017.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\_FRAUDE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\buddhascoopa\bloodhound\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12600" windowWidth="8040" windowHeight="2340" tabRatio="786" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="786" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="dev" sheetId="1" r:id="rId1"/>
@@ -1042,9 +1042,6 @@
     <t>Custo Oracle STO RAC</t>
   </si>
   <si>
-    <t>Bc2Qv9XC</t>
-  </si>
-  <si>
     <t>PORTAL_FMS_APP</t>
   </si>
   <si>
@@ -1353,6 +1350,9 @@
   </si>
   <si>
     <t>16/18</t>
+  </si>
+  <si>
+    <t>An5eR9vB</t>
   </si>
 </sst>
 </file>
@@ -1363,8 +1363,8 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -1816,6 +1816,35 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="12" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1831,35 +1860,6 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="12" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2482,7 +2482,7 @@
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="76" t="s">
         <v>32</v>
       </c>
       <c r="B20" t="s">
@@ -2493,7 +2493,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="65"/>
+      <c r="A21" s="76"/>
       <c r="B21" t="s">
         <v>14</v>
       </c>
@@ -2502,7 +2502,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="65"/>
+      <c r="A22" s="76"/>
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -2576,53 +2576,53 @@
   <sheetData>
     <row r="1" spans="2:14">
       <c r="G1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="2:14">
-      <c r="C2" s="65" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="C2" s="76" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
     </row>
     <row r="3" spans="2:14" ht="45">
       <c r="B3" s="62" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="C3" s="62" t="s">
-        <v>331</v>
-      </c>
-      <c r="D3" s="62" t="s">
+      <c r="E3" s="62" t="s">
         <v>333</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="F3" s="62" t="s">
         <v>334</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="G3" s="62" t="s">
         <v>335</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="H3" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="I3" s="62" t="s">
         <v>336</v>
       </c>
-      <c r="H3" s="62" t="s">
-        <v>329</v>
-      </c>
-      <c r="I3" s="62" t="s">
+      <c r="K3" s="62" t="s">
         <v>337</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="L3" s="62" t="s">
         <v>338</v>
       </c>
-      <c r="L3" s="62" t="s">
-        <v>339</v>
-      </c>
       <c r="M3" s="62" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="2:14">
@@ -2670,50 +2670,50 @@
     </row>
     <row r="8" spans="2:14">
       <c r="G8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="C9" s="65" t="s">
-        <v>330</v>
-      </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
+      <c r="C9" s="76" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
     </row>
     <row r="10" spans="2:14" ht="45">
       <c r="B10" s="62" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>330</v>
+      </c>
+      <c r="D10" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="C10" s="62" t="s">
-        <v>331</v>
-      </c>
-      <c r="D10" s="62" t="s">
+      <c r="E10" s="62" t="s">
         <v>333</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="F10" s="62" t="s">
         <v>334</v>
       </c>
-      <c r="F10" s="62" t="s">
+      <c r="G10" s="62" t="s">
         <v>335</v>
       </c>
-      <c r="G10" s="62" t="s">
+      <c r="H10" s="62" t="s">
+        <v>341</v>
+      </c>
+      <c r="I10" s="62" t="s">
         <v>336</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="K10" s="62" t="s">
         <v>342</v>
       </c>
-      <c r="I10" s="62" t="s">
-        <v>337</v>
-      </c>
-      <c r="K10" s="62" t="s">
-        <v>343</v>
-      </c>
       <c r="L10" s="62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="2:14">
@@ -2769,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2793,38 +2793,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.5">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1" s="65" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="D1" s="65" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>388</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>389</v>
+      </c>
+      <c r="H1" s="66" t="s">
         <v>351</v>
       </c>
-      <c r="C1" s="70" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1" s="70" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1" s="70" t="s">
-        <v>350</v>
-      </c>
-      <c r="F1" s="71" t="s">
-        <v>389</v>
-      </c>
-      <c r="G1" s="71" t="s">
-        <v>390</v>
-      </c>
-      <c r="H1" s="71" t="s">
+      <c r="I1" s="67" t="s">
+        <v>383</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="68" t="s">
         <v>352</v>
       </c>
-      <c r="I1" s="72" t="s">
-        <v>384</v>
-      </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="73" t="s">
-        <v>353</v>
-      </c>
-      <c r="L1" s="74">
+      <c r="L1" s="69">
         <v>8000000</v>
       </c>
     </row>
@@ -2833,24 +2833,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C2" s="35">
         <v>1</v>
       </c>
-      <c r="D2" s="75" t="s">
-        <v>356</v>
-      </c>
-      <c r="E2" s="76">
+      <c r="D2" s="70" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" s="71">
         <v>0.02</v>
       </c>
-      <c r="F2" s="77" t="s">
-        <v>391</v>
-      </c>
-      <c r="G2" s="77" t="s">
-        <v>395</v>
-      </c>
-      <c r="H2" s="78">
+      <c r="F2" s="72" t="s">
+        <v>390</v>
+      </c>
+      <c r="G2" s="72" t="s">
+        <v>394</v>
+      </c>
+      <c r="H2" s="73">
         <f>L1*E2</f>
         <v>160000</v>
       </c>
@@ -2858,13 +2858,13 @@
         <v>10</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L2" s="30">
         <v>65</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="28.5">
@@ -2872,24 +2872,24 @@
         <v>2</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C3" s="35">
         <v>2</v>
       </c>
-      <c r="D3" s="75" t="s">
-        <v>357</v>
-      </c>
-      <c r="E3" s="76">
+      <c r="D3" s="70" t="s">
+        <v>356</v>
+      </c>
+      <c r="E3" s="71">
         <v>0.05</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="G3" s="72" t="s">
         <v>392</v>
       </c>
-      <c r="G3" s="77" t="s">
-        <v>393</v>
-      </c>
-      <c r="H3" s="78">
+      <c r="H3" s="73">
         <f>L1*E3</f>
         <v>400000</v>
       </c>
@@ -2897,13 +2897,13 @@
         <v>35</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L3" s="30">
         <v>74</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="42.75">
@@ -2911,24 +2911,24 @@
         <v>3</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C4" s="35">
         <v>11</v>
       </c>
-      <c r="D4" s="75" t="s">
-        <v>358</v>
-      </c>
-      <c r="E4" s="76">
+      <c r="D4" s="70" t="s">
+        <v>357</v>
+      </c>
+      <c r="E4" s="71">
         <v>0.04</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="78">
+      <c r="H4" s="73">
         <f>L1*E4</f>
         <v>320000</v>
       </c>
@@ -2936,14 +2936,14 @@
         <v>25</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L4" s="30">
         <f>SUM(L2:L3)</f>
         <v>139</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O4" s="30">
         <v>52</v>
@@ -2954,24 +2954,24 @@
         <v>4</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>354</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>385</v>
-      </c>
-      <c r="D5" s="75" t="s">
-        <v>359</v>
-      </c>
-      <c r="E5" s="76">
+        <v>353</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>358</v>
+      </c>
+      <c r="E5" s="71">
         <v>0.06</v>
       </c>
-      <c r="F5" s="77" t="s">
+      <c r="F5" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="78">
+      <c r="H5" s="73">
         <f>L1*E5</f>
         <v>480000</v>
       </c>
@@ -2979,9 +2979,9 @@
         <v>40</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>383</v>
-      </c>
-      <c r="L5" s="80">
+        <v>382</v>
+      </c>
+      <c r="L5" s="75">
         <f>L4/O4</f>
         <v>2.6730769230769229</v>
       </c>
@@ -2991,24 +2991,24 @@
         <v>5</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C6" s="35">
         <v>3</v>
       </c>
-      <c r="D6" s="75" t="s">
-        <v>360</v>
-      </c>
-      <c r="E6" s="76">
+      <c r="D6" s="70" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="71">
         <v>0.02</v>
       </c>
-      <c r="F6" s="77" t="s">
-        <v>394</v>
-      </c>
-      <c r="G6" s="77" t="s">
+      <c r="F6" s="72" t="s">
+        <v>393</v>
+      </c>
+      <c r="G6" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="78">
+      <c r="H6" s="73">
         <f>L1*E6</f>
         <v>160000</v>
       </c>
@@ -3021,24 +3021,24 @@
         <v>6</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>354</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>385</v>
-      </c>
-      <c r="D7" s="75" t="s">
-        <v>361</v>
-      </c>
-      <c r="E7" s="76">
+        <v>353</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>384</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>360</v>
+      </c>
+      <c r="E7" s="71">
         <v>0.02</v>
       </c>
-      <c r="F7" s="77" t="s">
+      <c r="F7" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="77" t="s">
+      <c r="G7" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H7" s="78">
+      <c r="H7" s="73">
         <f>L1*E7</f>
         <v>160000</v>
       </c>
@@ -3051,24 +3051,24 @@
         <v>7</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>354</v>
-      </c>
-      <c r="C8" s="79" t="s">
-        <v>385</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>362</v>
-      </c>
-      <c r="E8" s="76">
+        <v>353</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>384</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>361</v>
+      </c>
+      <c r="E8" s="71">
         <v>0.02</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H8" s="78">
+      <c r="H8" s="73">
         <f>L1*E8</f>
         <v>160000</v>
       </c>
@@ -3081,24 +3081,24 @@
         <v>8</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>354</v>
-      </c>
-      <c r="C9" s="79" t="s">
-        <v>387</v>
-      </c>
-      <c r="D9" s="75" t="s">
-        <v>363</v>
-      </c>
-      <c r="E9" s="76">
+        <v>353</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>362</v>
+      </c>
+      <c r="E9" s="71">
         <v>0.02</v>
       </c>
-      <c r="F9" s="77" t="s">
+      <c r="F9" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="78">
+      <c r="H9" s="73">
         <f>L1*E9</f>
         <v>160000</v>
       </c>
@@ -3111,24 +3111,24 @@
         <v>9</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C10" s="35">
         <v>10</v>
       </c>
-      <c r="D10" s="75" t="s">
-        <v>364</v>
-      </c>
-      <c r="E10" s="76">
+      <c r="D10" s="70" t="s">
+        <v>363</v>
+      </c>
+      <c r="E10" s="71">
         <v>0.04</v>
       </c>
-      <c r="F10" s="77" t="s">
+      <c r="F10" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="77" t="s">
+      <c r="G10" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H10" s="78">
+      <c r="H10" s="73">
         <f>L1*E10</f>
         <v>320000</v>
       </c>
@@ -3141,24 +3141,24 @@
         <v>10</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>386</v>
-      </c>
-      <c r="D11" s="75" t="s">
-        <v>365</v>
-      </c>
-      <c r="E11" s="76">
+        <v>385</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>364</v>
+      </c>
+      <c r="E11" s="71">
         <v>0.09</v>
       </c>
-      <c r="F11" s="77" t="s">
+      <c r="F11" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="77" t="s">
+      <c r="G11" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="78">
+      <c r="H11" s="73">
         <f>L1*E11</f>
         <v>720000</v>
       </c>
@@ -3171,24 +3171,24 @@
         <v>11</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>354</v>
-      </c>
-      <c r="C12" s="79" t="s">
-        <v>388</v>
-      </c>
-      <c r="D12" s="75" t="s">
-        <v>366</v>
-      </c>
-      <c r="E12" s="76">
+        <v>353</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>387</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>365</v>
+      </c>
+      <c r="E12" s="71">
         <v>0.04</v>
       </c>
-      <c r="F12" s="77" t="s">
+      <c r="F12" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="77" t="s">
+      <c r="G12" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H12" s="78">
+      <c r="H12" s="73">
         <f>L1*E12</f>
         <v>320000</v>
       </c>
@@ -3201,24 +3201,24 @@
         <v>12</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C13" s="35">
         <v>12</v>
       </c>
-      <c r="D13" s="75" t="s">
-        <v>367</v>
-      </c>
-      <c r="E13" s="76">
+      <c r="D13" s="70" t="s">
+        <v>366</v>
+      </c>
+      <c r="E13" s="71">
         <v>0.04</v>
       </c>
-      <c r="F13" s="77" t="s">
+      <c r="F13" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G13" s="77" t="s">
+      <c r="G13" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="78">
+      <c r="H13" s="73">
         <f>L1*E13</f>
         <v>320000</v>
       </c>
@@ -3231,24 +3231,24 @@
         <v>13</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="D14" s="75" t="s">
-        <v>368</v>
-      </c>
-      <c r="E14" s="76">
+        <v>395</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>367</v>
+      </c>
+      <c r="E14" s="71">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F14" s="77" t="s">
+      <c r="F14" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="77" t="s">
+      <c r="G14" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="78">
+      <c r="H14" s="73">
         <f>L1*E14</f>
         <v>560000</v>
       </c>
@@ -3261,24 +3261,24 @@
         <v>14</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="D15" s="75" t="s">
-        <v>369</v>
-      </c>
-      <c r="E15" s="76">
+        <v>395</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>368</v>
+      </c>
+      <c r="E15" s="71">
         <v>0.04</v>
       </c>
-      <c r="F15" s="77" t="s">
+      <c r="F15" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="77" t="s">
+      <c r="G15" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="78">
+      <c r="H15" s="73">
         <f>L1*E15</f>
         <v>320000</v>
       </c>
@@ -3291,24 +3291,24 @@
         <v>15</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C16" s="35">
         <v>15</v>
       </c>
-      <c r="D16" s="75" t="s">
-        <v>370</v>
-      </c>
-      <c r="E16" s="76">
+      <c r="D16" s="70" t="s">
+        <v>369</v>
+      </c>
+      <c r="E16" s="71">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F16" s="77" t="s">
+      <c r="F16" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="77" t="s">
+      <c r="G16" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H16" s="78">
+      <c r="H16" s="73">
         <f>L1*E16</f>
         <v>560000</v>
       </c>
@@ -3321,24 +3321,24 @@
         <v>16</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>397</v>
-      </c>
-      <c r="D17" s="75" t="s">
-        <v>371</v>
-      </c>
-      <c r="E17" s="76">
+        <v>396</v>
+      </c>
+      <c r="D17" s="70" t="s">
+        <v>370</v>
+      </c>
+      <c r="E17" s="71">
         <v>0.04</v>
       </c>
-      <c r="F17" s="77" t="s">
+      <c r="F17" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="77" t="s">
+      <c r="G17" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="78">
+      <c r="H17" s="73">
         <f>L1*E17</f>
         <v>320000</v>
       </c>
@@ -3351,24 +3351,24 @@
         <v>17</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C18" s="35">
         <v>17</v>
       </c>
-      <c r="D18" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E18" s="76">
+      <c r="D18" s="70" t="s">
+        <v>371</v>
+      </c>
+      <c r="E18" s="71">
         <v>0.04</v>
       </c>
-      <c r="F18" s="77" t="s">
+      <c r="F18" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="77" t="s">
+      <c r="G18" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="78">
+      <c r="H18" s="73">
         <f>L1*E18</f>
         <v>320000</v>
       </c>
@@ -3381,24 +3381,24 @@
         <v>18</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>397</v>
-      </c>
-      <c r="D19" s="75" t="s">
-        <v>373</v>
-      </c>
-      <c r="E19" s="76">
+        <v>396</v>
+      </c>
+      <c r="D19" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="E19" s="71">
         <v>0.04</v>
       </c>
-      <c r="F19" s="77" t="s">
+      <c r="F19" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="77" t="s">
+      <c r="G19" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="78">
+      <c r="H19" s="73">
         <f>L1*E19</f>
         <v>320000</v>
       </c>
@@ -3411,24 +3411,24 @@
         <v>19</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C20" s="35">
         <v>19</v>
       </c>
-      <c r="D20" s="75" t="s">
-        <v>374</v>
-      </c>
-      <c r="E20" s="76">
+      <c r="D20" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="E20" s="71">
         <v>0.03</v>
       </c>
-      <c r="F20" s="77" t="s">
+      <c r="F20" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="77" t="s">
+      <c r="G20" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H20" s="78">
+      <c r="H20" s="73">
         <f>L1*E20</f>
         <v>240000</v>
       </c>
@@ -3441,24 +3441,24 @@
         <v>20</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C21" s="35">
         <v>20</v>
       </c>
-      <c r="D21" s="75" t="s">
-        <v>375</v>
-      </c>
-      <c r="E21" s="76">
+      <c r="D21" s="70" t="s">
+        <v>374</v>
+      </c>
+      <c r="E21" s="71">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F21" s="77" t="s">
+      <c r="F21" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="77" t="s">
+      <c r="G21" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H21" s="78">
+      <c r="H21" s="73">
         <f>L1*E21</f>
         <v>560000</v>
       </c>
@@ -3471,24 +3471,24 @@
         <v>21</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C22" s="35">
         <v>21</v>
       </c>
-      <c r="D22" s="75" t="s">
-        <v>376</v>
-      </c>
-      <c r="E22" s="76">
+      <c r="D22" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="E22" s="71">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F22" s="77" t="s">
+      <c r="F22" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="77" t="s">
+      <c r="G22" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H22" s="78">
+      <c r="H22" s="73">
         <f>L1*E22</f>
         <v>560000</v>
       </c>
@@ -3501,24 +3501,24 @@
         <v>22</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C23" s="35">
         <v>22</v>
       </c>
-      <c r="D23" s="75" t="s">
-        <v>377</v>
-      </c>
-      <c r="E23" s="76">
+      <c r="D23" s="70" t="s">
+        <v>376</v>
+      </c>
+      <c r="E23" s="71">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F23" s="77" t="s">
+      <c r="F23" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="77" t="s">
+      <c r="G23" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="78">
+      <c r="H23" s="73">
         <f>L1*E23</f>
         <v>560000</v>
       </c>
@@ -3763,15 +3763,15 @@
         <v>71</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>48</v>
@@ -3797,15 +3797,15 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -3905,19 +3905,19 @@
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="L20" s="66" t="s">
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="L20" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="76" t="s">
         <v>55</v>
       </c>
       <c r="B21" t="s">
@@ -3926,7 +3926,7 @@
       <c r="C21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L21" s="65" t="s">
+      <c r="L21" s="76" t="s">
         <v>74</v>
       </c>
       <c r="M21" t="s">
@@ -3937,14 +3937,14 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="65"/>
+      <c r="A22" s="76"/>
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="1">
         <v>1549</v>
       </c>
-      <c r="L22" s="65"/>
+      <c r="L22" s="76"/>
       <c r="M22" t="s">
         <v>14</v>
       </c>
@@ -3953,14 +3953,14 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="65"/>
+      <c r="A23" s="76"/>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L23" s="65"/>
+      <c r="L23" s="76"/>
       <c r="M23" t="s">
         <v>13</v>
       </c>
@@ -4009,7 +4009,7 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="76" t="s">
         <v>59</v>
       </c>
       <c r="B32" t="s">
@@ -4018,7 +4018,7 @@
       <c r="C32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L32" s="65" t="s">
+      <c r="L32" s="76" t="s">
         <v>78</v>
       </c>
       <c r="M32" t="s">
@@ -4029,14 +4029,14 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="65"/>
+      <c r="A33" s="76"/>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="1">
         <v>1549</v>
       </c>
-      <c r="L33" s="65"/>
+      <c r="L33" s="76"/>
       <c r="M33" t="s">
         <v>14</v>
       </c>
@@ -4045,14 +4045,14 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="65"/>
+      <c r="A34" s="76"/>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L34" s="65"/>
+      <c r="L34" s="76"/>
       <c r="M34" t="s">
         <v>13</v>
       </c>
@@ -4548,19 +4548,19 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="L20" s="66" t="s">
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="L20" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="76" t="s">
         <v>55</v>
       </c>
       <c r="B21" t="s">
@@ -4569,7 +4569,7 @@
       <c r="C21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L21" s="65" t="s">
+      <c r="L21" s="76" t="s">
         <v>74</v>
       </c>
       <c r="M21" t="s">
@@ -4580,14 +4580,14 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="65"/>
+      <c r="A22" s="76"/>
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="1">
         <v>1549</v>
       </c>
-      <c r="L22" s="65"/>
+      <c r="L22" s="76"/>
       <c r="M22" t="s">
         <v>14</v>
       </c>
@@ -4596,14 +4596,14 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="65"/>
+      <c r="A23" s="76"/>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L23" s="65"/>
+      <c r="L23" s="76"/>
       <c r="M23" t="s">
         <v>13</v>
       </c>
@@ -4652,7 +4652,7 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="76" t="s">
         <v>59</v>
       </c>
       <c r="B32" t="s">
@@ -4661,7 +4661,7 @@
       <c r="C32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L32" s="65" t="s">
+      <c r="L32" s="76" t="s">
         <v>78</v>
       </c>
       <c r="M32" t="s">
@@ -4672,14 +4672,14 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="65"/>
+      <c r="A33" s="76"/>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="1">
         <v>1549</v>
       </c>
-      <c r="L33" s="65"/>
+      <c r="L33" s="76"/>
       <c r="M33" t="s">
         <v>14</v>
       </c>
@@ -4688,14 +4688,14 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="65"/>
+      <c r="A34" s="76"/>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L34" s="65"/>
+      <c r="L34" s="76"/>
       <c r="M34" t="s">
         <v>13</v>
       </c>
@@ -5295,8 +5295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5318,17 +5318,17 @@
         <v>245</v>
       </c>
       <c r="B1" s="29"/>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="78" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="29" t="s">
@@ -5408,7 +5408,7 @@
         <v>248</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F4" s="34" t="s">
         <v>253</v>
@@ -5420,10 +5420,10 @@
         <v>255</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K4" s="34" t="s">
         <v>262</v>
@@ -5438,28 +5438,28 @@
         <v>233</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>294</v>
+        <v>397</v>
       </c>
       <c r="E5" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="K5" s="53" t="s">
         <v>345</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>345</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>345</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>345</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>345</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>345</v>
-      </c>
-      <c r="K5" s="53" t="s">
-        <v>346</v>
       </c>
       <c r="L5" s="30"/>
     </row>
@@ -5476,13 +5476,13 @@
         <v>247</v>
       </c>
       <c r="B8" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="F8" t="s">
         <v>327</v>
-      </c>
-      <c r="F8" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5509,7 +5509,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="30"/>
       <c r="I14" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J14" s="30"/>
     </row>
@@ -5518,7 +5518,7 @@
         <v>264</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J15" s="30"/>
     </row>
@@ -5527,25 +5527,25 @@
         <v>265</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J16" s="30"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J18" s="30"/>
     </row>
@@ -5565,10 +5565,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J21" s="30"/>
     </row>
@@ -5577,10 +5577,10 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J22" s="30"/>
     </row>
@@ -5589,10 +5589,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J23" s="30"/>
     </row>
@@ -5601,7 +5601,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5609,7 +5609,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5659,10 +5659,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="79" t="s">
         <v>280</v>
       </c>
-      <c r="G1" s="68"/>
+      <c r="G1" s="79"/>
       <c r="I1" s="30" t="s">
         <v>267</v>
       </c>
@@ -5670,10 +5670,10 @@
     <row r="2" spans="1:9">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="80" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="69"/>
+      <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="37"/>
@@ -5979,11 +5979,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="79" t="s">
         <v>280</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
       <c r="M1" s="30" t="s">
         <v>267</v>
       </c>
@@ -5991,15 +5991,15 @@
     <row r="2" spans="1:13">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="80" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="69"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="36"/>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="80" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="69"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="37"/>
@@ -6029,7 +6029,7 @@
         <v>512</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F4" s="48"/>
       <c r="G4" s="48"/>
@@ -6056,7 +6056,7 @@
         <v>128</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F5" s="39">
         <v>24</v>
@@ -6095,7 +6095,7 @@
         <v>1024</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F7" s="48"/>
       <c r="G7" s="48"/>
@@ -6142,7 +6142,7 @@
         <v>512</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
@@ -6181,7 +6181,7 @@
         <v>1024</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
@@ -6395,7 +6395,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C25" s="35">
         <v>36</v>
@@ -6426,13 +6426,13 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="C26" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="C26" s="35" t="s">
-        <v>316</v>
-      </c>
       <c r="D26" s="35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E26" s="35"/>
       <c r="H26" s="39"/>
@@ -6501,7 +6501,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H31" s="45">
         <v>300000</v>
